--- a/작업지시서.xlsx
+++ b/작업지시서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9431921F-4A39-4F67-ADE7-748B04E4A4C4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056167B-BB3D-4F4B-A967-3FA385ECFE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1500" yWindow="1035" windowWidth="17625" windowHeight="12900" activeTab="1" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
+    <workbookView xWindow="4290" yWindow="660" windowWidth="17625" windowHeight="12900" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
   <si>
     <t>Bicycle' 3d 모델링 Team Project 작업지시서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,26 @@
     <t>20 x 1.2 인치</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Main_Sketch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.asm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자전거 지오메트리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -209,7 +229,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -264,8 +284,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -566,13 +592,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -603,9 +705,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,9 +714,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -633,9 +729,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -663,6 +756,12 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -705,7 +804,16 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -717,21 +825,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -741,13 +834,40 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -772,15 +892,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>85724</xdr:colOff>
+      <xdr:colOff>133349</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>438150</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:rowOff>180976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -809,8 +929,58 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="4124324" y="1647825"/>
+          <a:off x="4171949" y="1628775"/>
           <a:ext cx="4343401" cy="3257551"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>56130</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C83C24C7-252C-4518-A677-530F80CA2245}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591051" y="8029576"/>
+          <a:ext cx="4332854" cy="3581400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1176,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C73558A-D306-4C58-AFA5-6C9B7114F11F}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J30" sqref="J30"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1185,93 +1355,95 @@
     <col min="2" max="2" width="15.625" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
+    <col min="7" max="7" width="11.75" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="36"/>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="37"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="35"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="39" t="s">
+      <c r="A6" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="40"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="15" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1376,7 +1548,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="3"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>10</v>
       </c>
@@ -1385,96 +1557,116 @@
       <c r="D17" s="2"/>
       <c r="E17" s="3"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3"/>
     </row>
-    <row r="26" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="43"/>
-      <c r="E27" s="44"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="18" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="42"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="62" t="s">
+        <v>35</v>
+      </c>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="64"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C28" s="19" t="s">
+      <c r="C28" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F28" s="59">
+        <v>1</v>
+      </c>
+      <c r="G28" s="60" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>26</v>
+      </c>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="8">
         <v>1</v>
       </c>
@@ -1484,12 +1676,27 @@
       <c r="C29" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="10">
         <v>44006</v>
       </c>
-      <c r="E29" s="10"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E29" s="57"/>
+      <c r="F29" s="18">
+        <v>2</v>
+      </c>
+      <c r="G29" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J29" s="24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="8">
         <v>2</v>
       </c>
@@ -1499,12 +1706,19 @@
       <c r="C30" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="10">
         <v>44006</v>
       </c>
-      <c r="E30" s="10"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E30" s="57"/>
+      <c r="F30" s="18">
+        <v>3</v>
+      </c>
+      <c r="G30" s="19"/>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="24"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="8">
         <v>3</v>
       </c>
@@ -1514,12 +1728,19 @@
       <c r="C31" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="10">
         <v>44006</v>
       </c>
-      <c r="E31" s="10"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E31" s="57"/>
+      <c r="F31" s="18">
+        <v>4</v>
+      </c>
+      <c r="G31" s="19"/>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="8">
         <v>4</v>
       </c>
@@ -1528,9 +1749,16 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="10"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E32" s="57"/>
+      <c r="F32" s="18">
+        <v>5</v>
+      </c>
+      <c r="G32" s="19"/>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="24"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="8">
         <v>5</v>
       </c>
@@ -1539,58 +1767,101 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="10"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="57"/>
+      <c r="F33" s="18">
+        <v>6</v>
+      </c>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="24"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="8">
         <v>6</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="10"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="57"/>
+      <c r="F34" s="18">
+        <v>7</v>
+      </c>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="8">
         <v>7</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="10"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="57"/>
+      <c r="F35" s="18">
+        <v>8</v>
+      </c>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="24"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="8">
         <v>8</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="10"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="57"/>
+      <c r="F36" s="18">
+        <v>9</v>
+      </c>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="24"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="8">
         <v>9</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="10"/>
-    </row>
-    <row r="38" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="12">
+      <c r="E37" s="57"/>
+      <c r="F37" s="18">
         <v>10</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="14"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="24"/>
+    </row>
+    <row r="38" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="11">
+        <v>10</v>
+      </c>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="20">
+        <v>11</v>
+      </c>
+      <c r="G38" s="25"/>
+      <c r="H38" s="25"/>
+      <c r="I38" s="25"/>
+      <c r="J38" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F27:J27"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1603,7 +1874,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E9A39-791B-43FC-9F4A-34E769B93221}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A37" workbookViewId="0">
       <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
@@ -1614,517 +1885,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50">
+      <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="A17:E27"/>
     <mergeCell ref="F6:J34"/>
@@ -2135,6 +2401,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2153,517 +2424,512 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50">
+      <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -2674,6 +2940,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2691,517 +2962,512 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50">
+      <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3212,6 +3478,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3229,519 +3500,514 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="48" t="s">
+      <c r="B30" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50">
+      <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3752,6 +4018,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3770,517 +4041,512 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="32"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="31"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="35"/>
+      <c r="A2" s="32"/>
+      <c r="B2" s="33"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="33"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="35"/>
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
+      <c r="A4" s="32"/>
+      <c r="B4" s="33"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="33"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="38"/>
+      <c r="A5" s="32"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="25" t="s">
+      <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="45"/>
-      <c r="J6" s="45"/>
+      <c r="G6" s="47"/>
+      <c r="H6" s="47"/>
+      <c r="I6" s="47"/>
+      <c r="J6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="21">
+      <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="47"/>
-      <c r="H7" s="47"/>
-      <c r="I7" s="47"/>
-      <c r="J7" s="47"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="21">
+      <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="47"/>
-      <c r="H8" s="47"/>
-      <c r="I8" s="47"/>
-      <c r="J8" s="47"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="21">
+      <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="47"/>
-      <c r="H9" s="47"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="47"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="21">
+      <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-      <c r="H10" s="47"/>
-      <c r="I10" s="47"/>
-      <c r="J10" s="47"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="21">
+      <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="47"/>
-      <c r="H11" s="47"/>
-      <c r="I11" s="47"/>
-      <c r="J11" s="47"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="21">
+      <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="47"/>
-      <c r="H12" s="47"/>
-      <c r="I12" s="47"/>
-      <c r="J12" s="47"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="21">
+      <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="47"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="21">
+      <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="47"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="21">
+      <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="22"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="47"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="23">
+      <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="47"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="47"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="46"/>
-      <c r="B18" s="46"/>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
+      <c r="A18" s="48"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="48"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="46"/>
-      <c r="B19" s="46"/>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
+      <c r="A19" s="48"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="48"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="46"/>
-      <c r="B20" s="46"/>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
+      <c r="A20" s="48"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="48"/>
+      <c r="F20" s="49"/>
+      <c r="G20" s="49"/>
+      <c r="H20" s="49"/>
+      <c r="I20" s="49"/>
+      <c r="J20" s="49"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="46"/>
-      <c r="B21" s="46"/>
-      <c r="C21" s="46"/>
-      <c r="D21" s="46"/>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="46"/>
-      <c r="B22" s="46"/>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
+      <c r="A22" s="48"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="46"/>
-      <c r="B23" s="46"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
+      <c r="A23" s="48"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="49"/>
+      <c r="G23" s="49"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="46"/>
-      <c r="B24" s="46"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
+      <c r="A24" s="48"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="49"/>
+      <c r="G24" s="49"/>
+      <c r="H24" s="49"/>
+      <c r="I24" s="49"/>
+      <c r="J24" s="49"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="46"/>
-      <c r="B25" s="46"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
+      <c r="A25" s="48"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="49"/>
+      <c r="G25" s="49"/>
+      <c r="H25" s="49"/>
+      <c r="I25" s="49"/>
+      <c r="J25" s="49"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="46"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
+      <c r="A26" s="48"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
+      <c r="D26" s="48"/>
+      <c r="E26" s="48"/>
+      <c r="F26" s="49"/>
+      <c r="G26" s="49"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="49"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="46"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
+      <c r="A27" s="48"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="49"/>
+      <c r="G27" s="49"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="49"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="53" t="s">
+      <c r="A28" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="54"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="54"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="56" t="s">
+      <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="57" t="s">
+      <c r="B29" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="57"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="49"/>
+      <c r="G29" s="49"/>
+      <c r="H29" s="49"/>
+      <c r="I29" s="49"/>
+      <c r="J29" s="49"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="48"/>
-      <c r="C30" s="48"/>
-      <c r="D30" s="48"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="49"/>
+      <c r="J30" s="49"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
+      <c r="B31" s="43"/>
+      <c r="C31" s="43"/>
+      <c r="D31" s="43"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="49"/>
+      <c r="G32" s="49"/>
+      <c r="H32" s="49"/>
+      <c r="I32" s="49"/>
+      <c r="J32" s="49"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="48"/>
-      <c r="C33" s="48"/>
-      <c r="D33" s="48"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="43"/>
+      <c r="D33" s="43"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="49"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="49"/>
+      <c r="J33" s="49"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="48"/>
-      <c r="C34" s="48"/>
-      <c r="D34" s="48"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="49"/>
+      <c r="G34" s="49"/>
+      <c r="H34" s="49"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="49"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="48"/>
-      <c r="C35" s="48"/>
-      <c r="D35" s="48"/>
-      <c r="E35" s="49"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="44"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="48"/>
-      <c r="C36" s="48"/>
-      <c r="D36" s="48"/>
-      <c r="E36" s="49"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="44"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="48"/>
-      <c r="C37" s="48"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="48"/>
-      <c r="C38" s="48"/>
-      <c r="D38" s="48"/>
-      <c r="E38" s="49"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50">
+      <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="51"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="52"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="45"/>
+      <c r="D39" s="45"/>
+      <c r="E39" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4291,6 +4557,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업지시서.xlsx
+++ b/작업지시서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3056167B-BB3D-4F4B-A967-3FA385ECFE78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720AC813-D23C-4D6B-9B63-1EC77C00494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4290" yWindow="660" windowWidth="17625" windowHeight="12900" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
+    <workbookView xWindow="10290" yWindow="1095" windowWidth="17625" windowHeight="12900" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
   <si>
     <t>Bicycle' 3d 모델링 Team Project 작업지시서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -185,6 +185,66 @@
   </si>
   <si>
     <t>파일목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>frame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.prt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0005</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>saddle_mp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>handle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem3-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stem폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork폴더</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -762,6 +822,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -804,6 +882,42 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -814,60 +928,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1360,75 +1420,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="35"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="46"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -1621,20 +1681,20 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="62" t="s">
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="G27" s="63"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
-      <c r="J27" s="64"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="52"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -1649,20 +1709,20 @@
       <c r="D28" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E28" s="56" t="s">
+      <c r="E28" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="F28" s="59">
+      <c r="F28" s="32">
         <v>1</v>
       </c>
-      <c r="G28" s="60" t="s">
+      <c r="G28" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="H28" s="60" t="s">
+      <c r="H28" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="I28" s="60"/>
-      <c r="J28" s="61" t="s">
+      <c r="I28" s="33"/>
+      <c r="J28" s="34" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1679,7 +1739,7 @@
       <c r="D29" s="10">
         <v>44006</v>
       </c>
-      <c r="E29" s="57"/>
+      <c r="E29" s="30"/>
       <c r="F29" s="18">
         <v>2</v>
       </c>
@@ -1709,7 +1769,7 @@
       <c r="D30" s="10">
         <v>44006</v>
       </c>
-      <c r="E30" s="57"/>
+      <c r="E30" s="30"/>
       <c r="F30" s="18">
         <v>3</v>
       </c>
@@ -1731,7 +1791,7 @@
       <c r="D31" s="10">
         <v>44006</v>
       </c>
-      <c r="E31" s="57"/>
+      <c r="E31" s="30"/>
       <c r="F31" s="18">
         <v>4</v>
       </c>
@@ -1749,7 +1809,7 @@
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-      <c r="E32" s="57"/>
+      <c r="E32" s="30"/>
       <c r="F32" s="18">
         <v>5</v>
       </c>
@@ -1767,7 +1827,7 @@
       </c>
       <c r="C33" s="9"/>
       <c r="D33" s="9"/>
-      <c r="E33" s="57"/>
+      <c r="E33" s="30"/>
       <c r="F33" s="18">
         <v>6</v>
       </c>
@@ -1783,7 +1843,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
-      <c r="E34" s="57"/>
+      <c r="E34" s="30"/>
       <c r="F34" s="18">
         <v>7</v>
       </c>
@@ -1799,7 +1859,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9"/>
-      <c r="E35" s="57"/>
+      <c r="E35" s="30"/>
       <c r="F35" s="18">
         <v>8</v>
       </c>
@@ -1815,7 +1875,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9"/>
-      <c r="E36" s="57"/>
+      <c r="E36" s="30"/>
       <c r="F36" s="18">
         <v>9</v>
       </c>
@@ -1831,7 +1891,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9"/>
-      <c r="E37" s="57"/>
+      <c r="E37" s="30"/>
       <c r="F37" s="18">
         <v>10</v>
       </c>
@@ -1847,7 +1907,7 @@
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
-      <c r="E38" s="58"/>
+      <c r="E38" s="31"/>
       <c r="F38" s="20">
         <v>11</v>
       </c>
@@ -1874,8 +1934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E9A39-791B-43FC-9F4A-34E769B93221}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1885,66 +1945,66 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -1962,41 +2022,51 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2006,11 +2076,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -2020,11 +2090,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -2034,11 +2104,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -2048,11 +2118,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -2062,11 +2132,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -2076,11 +2146,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -2090,11 +2160,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -2104,293 +2174,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="A17:E27"/>
     <mergeCell ref="F6:J34"/>
@@ -2401,15 +2476,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2417,73 +2488,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72B99DCD-D71E-4CC0-8DA7-2D46F5955178}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -2501,69 +2572,91 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
-      <c r="D8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>48</v>
+      </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -2573,11 +2666,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -2587,11 +2680,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -2601,11 +2694,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -2615,11 +2708,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -2629,11 +2722,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -2643,293 +2736,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -2940,11 +3038,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2955,73 +3048,73 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D972E14F-0B08-4A2F-BF15-B411F6B9158D}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -3039,97 +3132,121 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -3139,11 +3256,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -3153,11 +3270,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -3167,11 +3284,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -3181,293 +3298,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3478,11 +3600,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3500,66 +3617,66 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -3577,13 +3694,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -3593,11 +3710,11 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -3607,11 +3724,11 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -3621,11 +3738,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -3635,11 +3752,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -3649,11 +3766,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -3663,11 +3780,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -3677,11 +3794,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -3691,11 +3808,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -3705,11 +3822,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -3719,295 +3836,300 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4018,11 +4140,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4041,66 +4158,66 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="37"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="34"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="40"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+      <c r="J3" s="40"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="32"/>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="40"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="32"/>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
@@ -4118,13 +4235,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="47" t="s">
+      <c r="F6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="53"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -4134,11 +4251,11 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
+      <c r="I7" s="55"/>
+      <c r="J7" s="55"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -4148,11 +4265,11 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
+      <c r="I8" s="55"/>
+      <c r="J8" s="55"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -4162,11 +4279,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -4176,11 +4293,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="55"/>
+      <c r="J10" s="55"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -4190,11 +4307,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -4204,11 +4321,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+      <c r="H12" s="55"/>
+      <c r="I12" s="55"/>
+      <c r="J12" s="55"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -4218,11 +4335,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="55"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -4232,11 +4349,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+      <c r="H14" s="55"/>
+      <c r="I14" s="55"/>
+      <c r="J14" s="55"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -4246,11 +4363,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="55"/>
+      <c r="J15" s="55"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -4260,293 +4377,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+      <c r="H16" s="55"/>
+      <c r="I16" s="55"/>
+      <c r="J16" s="55"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="47" t="s">
+      <c r="A17" s="53" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="47"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="55"/>
+      <c r="I17" s="55"/>
+      <c r="J17" s="55"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="48"/>
-      <c r="B18" s="48"/>
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
-      <c r="E18" s="48"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
+      <c r="A18" s="54"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+      <c r="H18" s="55"/>
+      <c r="I18" s="55"/>
+      <c r="J18" s="55"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="48"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="48"/>
-      <c r="D19" s="48"/>
-      <c r="E19" s="48"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="54"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="54"/>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="55"/>
+      <c r="J19" s="55"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="48"/>
-      <c r="B20" s="48"/>
-      <c r="C20" s="48"/>
-      <c r="D20" s="48"/>
-      <c r="E20" s="48"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="49"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="49"/>
+      <c r="A20" s="54"/>
+      <c r="B20" s="54"/>
+      <c r="C20" s="54"/>
+      <c r="D20" s="54"/>
+      <c r="E20" s="54"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="55"/>
+      <c r="J20" s="55"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="48"/>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48"/>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="49"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="49"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="54"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="55"/>
+      <c r="J21" s="55"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="48"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
+      <c r="A22" s="54"/>
+      <c r="B22" s="54"/>
+      <c r="C22" s="54"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="48"/>
-      <c r="B23" s="48"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="48"/>
-      <c r="E23" s="48"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="49"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="49"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="54"/>
+      <c r="D23" s="54"/>
+      <c r="E23" s="54"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="48"/>
-      <c r="B24" s="48"/>
-      <c r="C24" s="48"/>
-      <c r="D24" s="48"/>
-      <c r="E24" s="48"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="49"/>
+      <c r="A24" s="54"/>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="48"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="49"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="49"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="54"/>
+      <c r="D25" s="54"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="48"/>
-      <c r="B26" s="48"/>
-      <c r="C26" s="48"/>
-      <c r="D26" s="48"/>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="49"/>
+      <c r="A26" s="54"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+      <c r="H26" s="55"/>
+      <c r="I26" s="55"/>
+      <c r="J26" s="55"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="48"/>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="49"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="54"/>
+      <c r="D27" s="54"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
+      <c r="I27" s="55"/>
+      <c r="J27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="49"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="49"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="55"/>
+      <c r="J28" s="55"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="53"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="49"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="49"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="43"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="44"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="49"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="49"/>
+      <c r="B30" s="61"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="61"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="43"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="44"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
+      <c r="B31" s="61"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="55"/>
+      <c r="J31" s="55"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="43"/>
-      <c r="C32" s="43"/>
-      <c r="D32" s="43"/>
-      <c r="E32" s="44"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="49"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="49"/>
+      <c r="B32" s="61"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="43"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="44"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="49"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="49"/>
+      <c r="B33" s="61"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="55"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="43"/>
-      <c r="C34" s="43"/>
-      <c r="D34" s="43"/>
-      <c r="E34" s="44"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="49"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="49"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="55"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="44"/>
+      <c r="B35" s="61"/>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="62"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="43"/>
-      <c r="C36" s="43"/>
-      <c r="D36" s="43"/>
-      <c r="E36" s="44"/>
+      <c r="B36" s="61"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="62"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="43"/>
-      <c r="C37" s="43"/>
-      <c r="D37" s="43"/>
-      <c r="E37" s="44"/>
+      <c r="B37" s="61"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="43"/>
-      <c r="C38" s="43"/>
-      <c r="D38" s="43"/>
-      <c r="E38" s="44"/>
+      <c r="B38" s="61"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="61"/>
+      <c r="E38" s="62"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="46"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="63"/>
+      <c r="E39" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4557,11 +4679,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업지시서.xlsx
+++ b/작업지시서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{720AC813-D23C-4D6B-9B63-1EC77C00494C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C512B5-77AF-4C13-A8C2-C9B4654C5D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10290" yWindow="1095" windowWidth="17625" windowHeight="12900" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
+    <workbookView xWindow="7320" yWindow="2310" windowWidth="17625" windowHeight="12900" activeTab="1" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
   <si>
     <t>Bicycle' 3d 모델링 Team Project 작업지시서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -245,6 +245,42 @@
   </si>
   <si>
     <t>fork폴더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjustable_race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bearings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crown-race</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork_stack_up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lower_stack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>washer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>locknut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fork 구멍 30, stem구멍 28</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -894,6 +930,18 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -916,18 +964,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1096,6 +1132,56 @@
         <a:xfrm rot="10800000">
           <a:off x="3451194" y="1076323"/>
           <a:ext cx="3397281" cy="1618379"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>53052</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB9EB434-961B-4B4E-8C43-ADD3454E45AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3895726" y="2724149"/>
+          <a:ext cx="1590674" cy="2586703"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1406,7 +1492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C73558A-D306-4C58-AFA5-6C9B7114F11F}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
@@ -1934,8 +2020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{085E9A39-791B-43FC-9F4A-34E769B93221}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2022,13 +2108,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -2042,11 +2128,11 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -2062,410 +2148,455 @@
         <v>50</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
-      <c r="B10" s="19"/>
-      <c r="C10" s="19"/>
-      <c r="D10" s="19"/>
+      <c r="B10" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
-      <c r="B11" s="19"/>
-      <c r="C11" s="19"/>
-      <c r="D11" s="19"/>
+      <c r="B11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
-      <c r="B12" s="19"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="B12" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="B16" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>50</v>
+      </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="A17:E27"/>
     <mergeCell ref="F6:J34"/>
@@ -2476,6 +2607,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2572,13 +2708,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -2592,11 +2728,11 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -2612,11 +2748,11 @@
         <v>48</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -2632,11 +2768,11 @@
         <v>48</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -2652,11 +2788,11 @@
         <v>48</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -2666,11 +2802,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -2680,11 +2816,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -2694,11 +2830,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -2708,11 +2844,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -2722,11 +2858,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -2736,298 +2872,293 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3038,6 +3169,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3132,13 +3268,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -3152,11 +3288,11 @@
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -3170,11 +3306,11 @@
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -3188,11 +3324,11 @@
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -3206,11 +3342,11 @@
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -3224,11 +3360,11 @@
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -3242,11 +3378,11 @@
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -3256,11 +3392,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -3270,11 +3406,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -3284,11 +3420,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -3298,298 +3434,293 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3600,6 +3731,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3694,13 +3830,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -3710,11 +3846,11 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -3724,11 +3860,11 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -3738,11 +3874,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -3752,11 +3888,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -3766,11 +3902,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -3780,11 +3916,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -3794,11 +3930,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -3808,11 +3944,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -3822,11 +3958,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -3836,300 +3972,295 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4140,6 +4271,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4235,13 +4371,13 @@
       <c r="E6" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="53" t="s">
+      <c r="F6" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="53"/>
-      <c r="J6" s="53"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -4251,11 +4387,11 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="55"/>
-      <c r="J7" s="55"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
+      <c r="I7" s="59"/>
+      <c r="J7" s="59"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -4265,11 +4401,11 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="55"/>
-      <c r="J8" s="55"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
+      <c r="I8" s="59"/>
+      <c r="J8" s="59"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -4279,11 +4415,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="55"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="59"/>
+      <c r="J9" s="59"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -4293,11 +4429,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="55"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -4307,11 +4443,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="55"/>
-      <c r="J11" s="55"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -4321,11 +4457,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="55"/>
-      <c r="J12" s="55"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
+      <c r="J12" s="59"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -4335,11 +4471,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="55"/>
-      <c r="J13" s="55"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="59"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -4349,11 +4485,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="55"/>
-      <c r="J14" s="55"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="59"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -4363,11 +4499,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="55"/>
-      <c r="J15" s="55"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
+      <c r="J15" s="59"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -4377,298 +4513,293 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="55"/>
-      <c r="J16" s="55"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="53" t="s">
+      <c r="A17" s="57" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="53"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="55"/>
-      <c r="J17" s="55"/>
+      <c r="B17" s="57"/>
+      <c r="C17" s="57"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="54"/>
-      <c r="B18" s="54"/>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="55"/>
-      <c r="J18" s="55"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
-      <c r="B19" s="54"/>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="55"/>
-      <c r="J19" s="55"/>
+      <c r="A19" s="58"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="54"/>
-      <c r="B20" s="54"/>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="55"/>
-      <c r="J20" s="55"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="54"/>
-      <c r="B21" s="54"/>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="55"/>
-      <c r="J21" s="55"/>
+      <c r="A21" s="58"/>
+      <c r="B21" s="58"/>
+      <c r="C21" s="58"/>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="54"/>
-      <c r="B22" s="54"/>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="54"/>
-      <c r="B23" s="54"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
+      <c r="A23" s="58"/>
+      <c r="B23" s="58"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="54"/>
-      <c r="B24" s="54"/>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
+      <c r="A24" s="58"/>
+      <c r="B24" s="58"/>
+      <c r="C24" s="58"/>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="54"/>
-      <c r="B25" s="54"/>
-      <c r="C25" s="54"/>
-      <c r="D25" s="54"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
+      <c r="A25" s="58"/>
+      <c r="B25" s="58"/>
+      <c r="C25" s="58"/>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="54"/>
-      <c r="B26" s="54"/>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="55"/>
-      <c r="J26" s="55"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="58"/>
+      <c r="C26" s="58"/>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="54"/>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="55"/>
-      <c r="J27" s="55"/>
+      <c r="A27" s="58"/>
+      <c r="B27" s="58"/>
+      <c r="C27" s="58"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="56" t="s">
+      <c r="A28" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="55"/>
-      <c r="J28" s="55"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="60"/>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="55"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="64"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="55"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="53"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="61"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="55"/>
-      <c r="J31" s="55"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="54"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="61"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="55"/>
-      <c r="J32" s="55"/>
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="61"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="55"/>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="61"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="55"/>
+      <c r="B34" s="53"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="61"/>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="62"/>
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="62"/>
+      <c r="B36" s="53"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="62"/>
+      <c r="B37" s="53"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="54"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="62"/>
+      <c r="B38" s="53"/>
+      <c r="C38" s="53"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="54"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="55"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4679,6 +4810,11 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업지시서.xlsx
+++ b/작업지시서.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\project\team\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7C512B5-77AF-4C13-A8C2-C9B4654C5D38}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC148A8C-36A7-47CE-B9BB-2D32C7CAC11A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="2310" windowWidth="17625" windowHeight="12900" activeTab="1" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
+    <workbookView xWindow="4545" yWindow="1320" windowWidth="17625" windowHeight="12900" activeTab="1" xr2:uid="{01AB5D9A-FFAC-4CBB-80B9-89B9775E740B}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="안장" sheetId="4" r:id="rId4"/>
     <sheet name="바퀴" sheetId="5" r:id="rId5"/>
     <sheet name="구동계" sheetId="6" r:id="rId6"/>
+    <sheet name="브레이크" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">프레임!$C$6:$C$16</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="70">
   <si>
     <t>Bicycle' 3d 모델링 Team Project 작업지시서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,14 +125,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>모델링</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스케치</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1102 강의실</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -281,6 +274,52 @@
   </si>
   <si>
     <t>fork 구멍 30, stem구멍 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.prt -&gt; saddle 결합부 수정버전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브레이크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임prt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0007</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>prt0008</t>
+  </si>
+  <si>
+    <t>prt0009</t>
+  </si>
+  <si>
+    <t>bibi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fedal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델링 착수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자료수집 및 스케치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>발표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -770,7 +809,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -876,6 +915,9 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="13" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -930,6 +972,30 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -940,30 +1006,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1493,12 +1535,12 @@
   <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="2" max="2" width="18.875" customWidth="1"/>
     <col min="3" max="3" width="8.75" customWidth="1"/>
     <col min="4" max="4" width="17.75" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
@@ -1506,75 +1548,75 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="41"/>
-      <c r="B5" s="42"/>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="42"/>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="44" t="s">
+      <c r="A6" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="47"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
@@ -1590,7 +1632,7 @@
         <v>5</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -1607,7 +1649,7 @@
         <v>7</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -1615,14 +1657,14 @@
         <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="C9" s="4">
         <v>44002</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -1630,13 +1672,13 @@
         <v>3</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>67</v>
       </c>
       <c r="C10" s="4">
         <v>44006</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" s="3"/>
     </row>
@@ -1761,26 +1803,30 @@
     </row>
     <row r="26" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
+      <c r="B26" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="4">
+        <v>44020</v>
+      </c>
       <c r="D26" s="6"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="47" t="s">
+      <c r="A27" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="B27" s="48"/>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="50" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" s="51"/>
-      <c r="H27" s="51"/>
-      <c r="I27" s="51"/>
-      <c r="J27" s="52"/>
+      <c r="B27" s="49"/>
+      <c r="C27" s="49"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="53"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="16" t="s">
@@ -1802,10 +1848,10 @@
         <v>1</v>
       </c>
       <c r="G28" s="33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H28" s="33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I28" s="33"/>
       <c r="J28" s="34" t="s">
@@ -1830,16 +1876,16 @@
         <v>2</v>
       </c>
       <c r="G29" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H29" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I29" s="19" t="s">
         <v>17</v>
       </c>
       <c r="J29" s="24" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1893,7 +1939,9 @@
       <c r="B32" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="9" t="s">
+        <v>18</v>
+      </c>
       <c r="D32" s="9"/>
       <c r="E32" s="30"/>
       <c r="F32" s="18">
@@ -1911,8 +1959,12 @@
       <c r="B33" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
+      <c r="C33" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="10">
+        <v>44008</v>
+      </c>
       <c r="E33" s="30"/>
       <c r="F33" s="18">
         <v>6</v>
@@ -1926,8 +1978,12 @@
       <c r="A34" s="8">
         <v>6</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
+      <c r="B34" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>19</v>
+      </c>
       <c r="D34" s="9"/>
       <c r="E34" s="30"/>
       <c r="F34" s="18">
@@ -2021,7 +2077,7 @@
   <dimension ref="A1:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2031,572 +2087,579 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E12" s="24"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>7</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C13" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C14" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="24"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>9</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E15" s="24"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>10</v>
       </c>
       <c r="B16" s="25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E16" s="26"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="B30" s="62" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="62" t="s">
+        <v>58</v>
+      </c>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="A17:E27"/>
     <mergeCell ref="F6:J34"/>
@@ -2607,11 +2670,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2631,168 +2689,168 @@
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" s="24"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>48</v>
-      </c>
       <c r="E9" s="24"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="19" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="24"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -2802,11 +2860,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -2816,11 +2874,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -2830,11 +2888,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -2844,11 +2902,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -2858,11 +2916,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -2872,293 +2930,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3169,11 +3232,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3182,545 +3240,679 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D972E14F-0B08-4A2F-BF15-B411F6B9158D}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
       <c r="B7" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
       <c r="B8" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
         <v>4</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>5</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
         <v>6</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
         <v>7</v>
       </c>
-      <c r="B13" s="19"/>
-      <c r="C13" s="19"/>
-      <c r="D13" s="19"/>
+      <c r="B13" s="19">
+        <v>1</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>60</v>
+      </c>
       <c r="E13" s="24"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
         <v>8</v>
       </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
+      <c r="B14" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
         <v>9</v>
       </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
+      <c r="B15" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
         <v>10</v>
       </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25"/>
+      <c r="B16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D40" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="18">
+        <v>11</v>
+      </c>
+      <c r="B41" s="19">
+        <v>200626</v>
+      </c>
+      <c r="C41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A42" s="18">
+        <v>12</v>
+      </c>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="18">
+        <v>13</v>
+      </c>
+      <c r="B43" s="19"/>
+      <c r="C43" s="19"/>
+      <c r="D43" s="19"/>
+      <c r="E43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="18">
+        <v>14</v>
+      </c>
+      <c r="B44" s="19"/>
+      <c r="C44" s="19"/>
+      <c r="D44" s="19"/>
+      <c r="E44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="18">
+        <v>15</v>
+      </c>
+      <c r="B45" s="19"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="24"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="18">
+        <v>16</v>
+      </c>
+      <c r="B46" s="19"/>
+      <c r="C46" s="19"/>
+      <c r="D46" s="19"/>
+      <c r="E46" s="24"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A47" s="18">
+        <v>17</v>
+      </c>
+      <c r="B47" s="19"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="24"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A48" s="18">
+        <v>18</v>
+      </c>
+      <c r="B48" s="19"/>
+      <c r="C48" s="19"/>
+      <c r="D48" s="19"/>
+      <c r="E48" s="24"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="18">
+        <v>19</v>
+      </c>
+      <c r="B49" s="19"/>
+      <c r="C49" s="19"/>
+      <c r="D49" s="19"/>
+      <c r="E49" s="24"/>
+    </row>
+    <row r="50" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="18">
+        <v>20</v>
+      </c>
+      <c r="B50" s="19"/>
+      <c r="C50" s="19"/>
+      <c r="D50" s="25"/>
+      <c r="E50" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -3731,11 +3923,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3746,97 +3933,97 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CE5A229-683D-4A52-8BF0-8AFDDE3115F4}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28:E39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G42" sqref="G42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
@@ -3846,11 +4033,11 @@
       <c r="C7" s="19"/>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
@@ -3860,11 +4047,11 @@
       <c r="C8" s="19"/>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
@@ -3874,11 +4061,11 @@
       <c r="C9" s="19"/>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -3888,11 +4075,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -3902,11 +4089,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -3916,11 +4103,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -3930,11 +4117,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -3944,11 +4131,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -3958,11 +4145,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -3972,295 +4159,300 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="53" t="s">
-        <v>30</v>
-      </c>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="B30" s="62" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4271,11 +4463,6 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
-    <mergeCell ref="B35:E35"/>
-    <mergeCell ref="B36:E36"/>
-    <mergeCell ref="B37:E37"/>
-    <mergeCell ref="B38:E38"/>
-    <mergeCell ref="B39:E39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4287,139 +4474,151 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DC72409-022F-447C-9A66-B325BBE8A973}">
   <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:E30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6:J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="37"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="40"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="38"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="40"/>
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="40"/>
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
     </row>
     <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="38"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="43"/>
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="21" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C6" s="22" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="22" t="s">
         <v>5</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="18">
         <v>1</v>
       </c>
-      <c r="B7" s="19"/>
-      <c r="C7" s="19"/>
+      <c r="B7" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D7" s="19"/>
       <c r="E7" s="24"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
-      <c r="I7" s="59"/>
-      <c r="J7" s="59"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>2</v>
       </c>
-      <c r="B8" s="19"/>
-      <c r="C8" s="19"/>
+      <c r="B8" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D8" s="19"/>
       <c r="E8" s="24"/>
-      <c r="F8" s="59"/>
-      <c r="G8" s="59"/>
-      <c r="H8" s="59"/>
-      <c r="I8" s="59"/>
-      <c r="J8" s="59"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="18">
         <v>3</v>
       </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="B9" s="19" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="D9" s="19"/>
       <c r="E9" s="24"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
-      <c r="I9" s="59"/>
-      <c r="J9" s="59"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="18">
@@ -4429,11 +4628,11 @@
       <c r="C10" s="19"/>
       <c r="D10" s="19"/>
       <c r="E10" s="24"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
@@ -4443,11 +4642,11 @@
       <c r="C11" s="19"/>
       <c r="D11" s="19"/>
       <c r="E11" s="24"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="18">
@@ -4457,11 +4656,11 @@
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
       <c r="E12" s="24"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
-      <c r="J12" s="59"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="18">
@@ -4471,11 +4670,11 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="24"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="59"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="18">
@@ -4485,11 +4684,11 @@
       <c r="C14" s="19"/>
       <c r="D14" s="19"/>
       <c r="E14" s="24"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
-      <c r="J14" s="59"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="18">
@@ -4499,11 +4698,11 @@
       <c r="C15" s="19"/>
       <c r="D15" s="19"/>
       <c r="E15" s="24"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="59"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
     </row>
     <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="20">
@@ -4513,293 +4712,298 @@
       <c r="C16" s="25"/>
       <c r="D16" s="25"/>
       <c r="E16" s="26"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="59"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="57" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="57"/>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="59"/>
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="58"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="58"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="58"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="58"/>
-      <c r="E19" s="58"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="58"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="58"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="58"/>
-      <c r="D21" s="58"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="58"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="58"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="58"/>
-      <c r="B23" s="58"/>
-      <c r="C23" s="58"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="58"/>
-      <c r="B24" s="58"/>
-      <c r="C24" s="58"/>
-      <c r="D24" s="58"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="58"/>
-      <c r="B25" s="58"/>
-      <c r="C25" s="58"/>
-      <c r="D25" s="58"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="58"/>
-      <c r="B26" s="58"/>
-      <c r="C26" s="58"/>
-      <c r="D26" s="58"/>
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
     </row>
     <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="58"/>
-      <c r="B27" s="58"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="60" t="s">
-        <v>29</v>
-      </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B29" s="63" t="s">
+      <c r="B29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="64"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1</v>
       </c>
-      <c r="B30" s="53"/>
-      <c r="C30" s="53"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="54"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>2</v>
       </c>
-      <c r="B31" s="53"/>
-      <c r="C31" s="53"/>
-      <c r="D31" s="53"/>
-      <c r="E31" s="54"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>3</v>
       </c>
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="54"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>4</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>5</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>6</v>
       </c>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>7</v>
       </c>
-      <c r="B36" s="53"/>
-      <c r="C36" s="53"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>8</v>
       </c>
-      <c r="B37" s="53"/>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="54"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>9</v>
       </c>
-      <c r="B38" s="53"/>
-      <c r="C38" s="53"/>
-      <c r="D38" s="53"/>
-      <c r="E38" s="54"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
     </row>
     <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="27">
         <v>10</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="55"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="56"/>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B35:E35"/>
+    <mergeCell ref="B36:E36"/>
+    <mergeCell ref="B37:E37"/>
+    <mergeCell ref="B38:E38"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="A1:J5"/>
     <mergeCell ref="F6:J34"/>
     <mergeCell ref="A17:E27"/>
@@ -4810,11 +5014,544 @@
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="B34:E34"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E62C1277-1C25-43D4-828D-3B35E63F7072}">
+  <dimension ref="A1:J39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="39"/>
+      <c r="B2" s="40"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="40"/>
+      <c r="J2" s="41"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="41"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="39"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="41"/>
+    </row>
+    <row r="5" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="39"/>
+      <c r="B5" s="40"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="40"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="54" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="54"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" s="19"/>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+      <c r="J7" s="56"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="18">
+        <v>2</v>
+      </c>
+      <c r="B8" s="19"/>
+      <c r="C8" s="19"/>
+      <c r="D8" s="19"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+      <c r="J8" s="56"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="18">
+        <v>3</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+      <c r="J9" s="56"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="18">
+        <v>4</v>
+      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+      <c r="J10" s="56"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="18">
+        <v>5</v>
+      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="56"/>
+      <c r="H11" s="56"/>
+      <c r="I11" s="56"/>
+      <c r="J11" s="56"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="18">
+        <v>6</v>
+      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="56"/>
+      <c r="H12" s="56"/>
+      <c r="I12" s="56"/>
+      <c r="J12" s="56"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="18">
+        <v>7</v>
+      </c>
+      <c r="B13" s="19"/>
+      <c r="C13" s="19"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
+      <c r="I13" s="56"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="18">
+        <v>8</v>
+      </c>
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="56"/>
+      <c r="H14" s="56"/>
+      <c r="I14" s="56"/>
+      <c r="J14" s="56"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="18">
+        <v>9</v>
+      </c>
+      <c r="B15" s="19"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+      <c r="J15" s="56"/>
+    </row>
+    <row r="16" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="20">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56"/>
+      <c r="H16" s="56"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="56"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17" s="54"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56"/>
+      <c r="H17" s="56"/>
+      <c r="I17" s="56"/>
+      <c r="J17" s="56"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="55"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
+      <c r="H18" s="56"/>
+      <c r="I18" s="56"/>
+      <c r="J18" s="56"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="55"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="55"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="56"/>
+      <c r="I20" s="56"/>
+      <c r="J20" s="56"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="55"/>
+      <c r="B21" s="55"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="56"/>
+      <c r="I21" s="56"/>
+      <c r="J21" s="56"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="55"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="56"/>
+      <c r="I22" s="56"/>
+      <c r="J22" s="56"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="55"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="56"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="56"/>
+      <c r="H24" s="56"/>
+      <c r="I24" s="56"/>
+      <c r="J24" s="56"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="56"/>
+      <c r="I25" s="56"/>
+      <c r="J25" s="56"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="56"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="56"/>
+      <c r="I26" s="56"/>
+      <c r="J26" s="56"/>
+    </row>
+    <row r="27" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="56"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="56"/>
+      <c r="I27" s="56"/>
+      <c r="J27" s="56"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="57" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="58"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="58"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="56"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="56"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B29" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>1</v>
+      </c>
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+      <c r="I30" s="56"/>
+      <c r="J30" s="56"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>2</v>
+      </c>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+      <c r="I31" s="56"/>
+      <c r="J31" s="56"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>3</v>
+      </c>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="56"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>4</v>
+      </c>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="56"/>
+      <c r="H33" s="56"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="56"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>5</v>
+      </c>
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="56"/>
+      <c r="H34" s="56"/>
+      <c r="I34" s="56"/>
+      <c r="J34" s="56"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>6</v>
+      </c>
+      <c r="B35" s="62"/>
+      <c r="C35" s="62"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>7</v>
+      </c>
+      <c r="B36" s="62"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>8</v>
+      </c>
+      <c r="B37" s="62"/>
+      <c r="C37" s="62"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>9</v>
+      </c>
+      <c r="B38" s="62"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+    </row>
+    <row r="39" spans="1:10" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="27">
+        <v>10</v>
+      </c>
+      <c r="B39" s="64"/>
+      <c r="C39" s="64"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
     <mergeCell ref="B35:E35"/>
     <mergeCell ref="B36:E36"/>
     <mergeCell ref="B37:E37"/>
     <mergeCell ref="B38:E38"/>
     <mergeCell ref="B39:E39"/>
+    <mergeCell ref="A1:J5"/>
+    <mergeCell ref="F6:J34"/>
+    <mergeCell ref="A17:E27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B31:E31"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B34:E34"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/작업지시서.xlsx
+++ b/작업지시서.xlsx
@@ -24,252 +24,267 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="82">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="87">
+  <x:si>
+    <x:t>모델링 완성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crank_gear_right</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bicycle' 3d 모델링 Team Project 작업지시서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도면 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>동영상 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ppt 제작</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도래울마을4단지</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crown-race</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자료수집 및 스케치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>saddle_mp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1102 강의실</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bearings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fedal_total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_Sketch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>자전거 지오메트리</x:t>
+  </x:si>
+  <x:si>
+    <x:t>break_lever</x:t>
+  </x:si>
+  <x:si>
+    <x:t>lower_stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 시작 일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>20 x 1.2 인치</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fork_stack</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fedal_axis</x:t>
+  </x:si>
+  <x:si>
+    <x:t>berak_right</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fedal_comp</x:t>
+  </x:si>
+  <x:si>
+    <x:t>handlebreak</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp_large</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sp_small</x:t>
+  </x:si>
+  <x:si>
+    <x:t>고병도</x:t>
+  </x:si>
+  <x:si>
+    <x:t>김재웅</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안장</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>내용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>발표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구동계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>확장자</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이종우</x:t>
+  </x:si>
+  <x:si>
+    <x:t>핸들</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임</x:t>
+  </x:si>
+  <x:si>
+    <x:t>일시</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바퀴</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V</x:t>
+  </x:si>
+  <x:si>
+    <x:t>체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>순서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fork_stack_up</x:t>
+  </x:si>
+  <x:si>
+    <x:t>berak_low_right</x:t>
+  </x:si>
   <x:si>
     <x:t>adjustable_race</x:t>
   </x:si>
   <x:si>
-    <x:t>fork_stack_up</x:t>
-  </x:si>
-  <x:si>
-    <x:t>고병도</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>확장자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바퀴</x:t>
-  </x:si>
-  <x:si>
-    <x:t>김재웅</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이종우</x:t>
-  </x:si>
-  <x:si>
-    <x:t>V</x:t>
-  </x:si>
-  <x:si>
-    <x:t>안장</x:t>
-  </x:si>
-  <x:si>
-    <x:t>핸들</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업자</x:t>
-  </x:si>
-  <x:si>
-    <x:t>체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구동계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>발표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임</x:t>
-  </x:si>
-  <x:si>
-    <x:t>내용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>순서</x:t>
+    <x:t>1.prt -&gt; saddle 결합부 수정버전</x:t>
+  </x:si>
+  <x:si>
+    <x:t>frame</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0003</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0001</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stem</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stem2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업일정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0004</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stem3-</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.prt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>.asm</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 개요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>분해 및 측정</x:t>
+  </x:si>
+  <x:si>
+    <x:t>stem폴더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일목록</x:t>
+  </x:si>
+  <x:si>
+    <x:t>작업 테마</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Memo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>handle</x:t>
+  </x:si>
+  <x:si>
+    <x:t>파일이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델링 사진</x:t>
   </x:si>
   <x:si>
     <x:t>wheel</x:t>
   </x:si>
   <x:si>
-    <x:t>break_lever</x:t>
-  </x:si>
-  <x:si>
-    <x:t>saddle_mp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>bearings</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_Sketch</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crown-race</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자전거 지오메트리</x:t>
-  </x:si>
-  <x:si>
-    <x:t>20 x 1.2 인치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fork_stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>자료수집 및 스케치</x:t>
-  </x:si>
-  <x:si>
-    <x:t>lower_stack</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 시작 일시</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도래울마을4단지</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1102 강의실</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fedal_total</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Bicycle' 3d 모델링 Team Project 작업지시서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.prt -&gt; saddle 결합부 수정버전</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0004</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stem2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0003</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업일정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 테마</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.prt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일목록</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stem폴더</x:t>
-  </x:si>
-  <x:si>
-    <x:t>handle</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stem</x:t>
-  </x:si>
-  <x:si>
-    <x:t>.asm</x:t>
-  </x:si>
-  <x:si>
-    <x:t>frame</x:t>
-  </x:si>
-  <x:si>
     <x:t>참고 자료</x:t>
   </x:si>
   <x:si>
-    <x:t>Memo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>파일이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>작업 개요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델링 사진</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0001</x:t>
-  </x:si>
-  <x:si>
-    <x:t>분해 및 측정</x:t>
-  </x:si>
-  <x:si>
-    <x:t>stem3-</x:t>
+    <x:t>prt0009</x:t>
+  </x:si>
+  <x:si>
+    <x:t>프레임prt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fork폴더</x:t>
+  </x:si>
+  <x:si>
+    <x:t>브레이크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fedal</x:t>
+  </x:si>
+  <x:si>
+    <x:t>crank</x:t>
+  </x:si>
+  <x:si>
+    <x:t>모델링 착수</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0007</x:t>
+  </x:si>
+  <x:si>
+    <x:t>tire_</x:t>
+  </x:si>
+  <x:si>
+    <x:t>washer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>locknut</x:t>
+  </x:si>
+  <x:si>
+    <x:t>fork</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prt0008</x:t>
   </x:si>
   <x:si>
     <x:t>prt0002</x:t>
   </x:si>
   <x:si>
-    <x:t>crank</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fedal</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0009</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fork폴더</x:t>
-  </x:si>
-  <x:si>
-    <x:t>프레임prt</x:t>
-  </x:si>
-  <x:si>
-    <x:t>브레이크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0007</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fork</x:t>
-  </x:si>
-  <x:si>
-    <x:t>washer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>prt0008</x:t>
-  </x:si>
-  <x:si>
-    <x:t>locknut</x:t>
-  </x:si>
-  <x:si>
-    <x:t>모델링 착수</x:t>
-  </x:si>
-  <x:si>
     <x:t>bibi</x:t>
   </x:si>
   <x:si>
     <x:t>fork 구멍 30, stem구멍 28</x:t>
   </x:si>
   <x:si>
-    <x:t>handlebreak</x:t>
-  </x:si>
-  <x:si>
-    <x:t>berak_low_right</x:t>
-  </x:si>
-  <x:si>
-    <x:t>crank_gear_right</x:t>
-  </x:si>
-  <x:si>
-    <x:t>berak_right</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fedal_axis</x:t>
-  </x:si>
-  <x:si>
-    <x:t>fedal_comp</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sp_large</x:t>
-  </x:si>
-  <x:si>
-    <x:t>sp_small</x:t>
-  </x:si>
-  <x:si>
-    <x:t>tire_</x:t>
+    <x:t>발표 준비 및 피드백</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -722,7 +737,7 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left>
+      <x:left style="medium">
         <x:color indexed="64"/>
       </x:left>
       <x:right>
@@ -742,7 +757,7 @@
       <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right style="medium">
+      <x:right>
         <x:color indexed="64"/>
       </x:right>
       <x:top>
@@ -756,10 +771,10 @@
       </x:diagonal>
     </x:border>
     <x:border diagonalUp="1" diagonalDown="1">
-      <x:left style="medium">
+      <x:left>
         <x:color indexed="64"/>
       </x:left>
-      <x:right>
+      <x:right style="medium">
         <x:color indexed="64"/>
       </x:right>
       <x:top>
@@ -1400,6 +1415,240 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
@@ -1452,338 +1701,104 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="15" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
         <x:xf numFmtId="0" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="9" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="4" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="5" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="7" fillId="8" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -2249,7 +2264,7 @@
 </x:styleSheet>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2330,7 +2345,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -2704,8 +2719,8 @@
   <x:sheetPr codeName="Sheet1"/>
   <x:dimension ref="A1:J38"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <x:selection activeCell="D19" activeCellId="0" sqref="D19:D19"/>
+    <x:sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <x:selection activeCell="D35" activeCellId="0" sqref="D35:D35"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
@@ -2718,91 +2733,91 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>35</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="56"/>
-      <x:c r="B5" s="46"/>
-      <x:c r="C5" s="46"/>
-      <x:c r="D5" s="46"/>
-      <x:c r="E5" s="46"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="42"/>
+      <x:c r="B5" s="43"/>
+      <x:c r="C5" s="43"/>
+      <x:c r="D5" s="43"/>
+      <x:c r="E5" s="43"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:5">
-      <x:c r="A6" s="57" t="s">
-        <x:v>40</x:v>
-      </x:c>
-      <x:c r="B6" s="58"/>
-      <x:c r="C6" s="58"/>
-      <x:c r="D6" s="58"/>
-      <x:c r="E6" s="59"/>
+      <x:c r="A6" s="45" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B6" s="46"/>
+      <x:c r="C6" s="46"/>
+      <x:c r="D6" s="46"/>
+      <x:c r="E6" s="47"/>
     </x:row>
     <x:row r="7" spans="1:5">
       <x:c r="A7" s="13" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B7" s="14" t="s">
-        <x:v>18</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C7" s="14" t="s">
-        <x:v>16</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="D7" s="14" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E7" s="15" t="s">
-        <x:v>12</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:5">
@@ -2810,16 +2825,16 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B8" s="2" t="s">
-        <x:v>56</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="C8" s="4">
         <x:v>44001</x:v>
       </x:c>
       <x:c r="D8" s="2" t="s">
-        <x:v>32</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="E8" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:5">
@@ -2827,14 +2842,14 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B9" s="2" t="s">
-        <x:v>29</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="4">
         <x:v>44002</x:v>
       </x:c>
       <x:c r="D9" s="2"/>
       <x:c r="E9" s="3" t="s">
-        <x:v>8</x:v>
+        <x:v>41</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:5">
@@ -2842,13 +2857,13 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B10" s="2" t="s">
-        <x:v>70</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C10" s="4">
         <x:v>44006</x:v>
       </x:c>
       <x:c r="D10" s="2" t="s">
-        <x:v>33</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="E10" s="3"/>
     </x:row>
@@ -2856,8 +2871,12 @@
       <x:c r="A11" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B11" s="2"/>
-      <x:c r="C11" s="4"/>
+      <x:c r="B11" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C11" s="4">
+        <x:v>44014</x:v>
+      </x:c>
       <x:c r="D11" s="2"/>
       <x:c r="E11" s="3"/>
     </x:row>
@@ -2865,8 +2884,12 @@
       <x:c r="A12" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B12" s="2"/>
-      <x:c r="C12" s="4"/>
+      <x:c r="B12" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C12" s="4">
+        <x:v>44015</x:v>
+      </x:c>
       <x:c r="D12" s="2"/>
       <x:c r="E12" s="3"/>
     </x:row>
@@ -2874,8 +2897,12 @@
       <x:c r="A13" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B13" s="2"/>
-      <x:c r="C13" s="4"/>
+      <x:c r="B13" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="C13" s="4">
+        <x:v>44016</x:v>
+      </x:c>
       <x:c r="D13" s="2"/>
       <x:c r="E13" s="3"/>
     </x:row>
@@ -2883,8 +2910,12 @@
       <x:c r="A14" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B14" s="2"/>
-      <x:c r="C14" s="4"/>
+      <x:c r="B14" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C14" s="4">
+        <x:v>44017</x:v>
+      </x:c>
       <x:c r="D14" s="2"/>
       <x:c r="E14" s="3"/>
     </x:row>
@@ -2892,8 +2923,12 @@
       <x:c r="A15" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B15" s="2"/>
-      <x:c r="C15" s="4"/>
+      <x:c r="B15" s="2" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C15" s="4">
+        <x:v>44018</x:v>
+      </x:c>
       <x:c r="D15" s="2"/>
       <x:c r="E15" s="3"/>
     </x:row>
@@ -2901,8 +2936,12 @@
       <x:c r="A16" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B16" s="2"/>
-      <x:c r="C16" s="4"/>
+      <x:c r="B16" s="2" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C16" s="4">
+        <x:v>44020</x:v>
+      </x:c>
       <x:c r="D16" s="2"/>
       <x:c r="E16" s="3"/>
     </x:row>
@@ -2973,59 +3012,55 @@
     </x:row>
     <x:row r="26" spans="1:5">
       <x:c r="A26" s="5"/>
-      <x:c r="B26" s="35" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C26" s="4">
-        <x:v>44020</x:v>
-      </x:c>
+      <x:c r="B26" s="35"/>
+      <x:c r="C26" s="4"/>
       <x:c r="D26" s="6"/>
       <x:c r="E26" s="7"/>
     </x:row>
     <x:row r="27" spans="1:10" ht="16.75">
-      <x:c r="A27" s="60" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="B27" s="61"/>
-      <x:c r="C27" s="61"/>
-      <x:c r="D27" s="61"/>
-      <x:c r="E27" s="62"/>
-      <x:c r="F27" s="63" t="s">
-        <x:v>44</x:v>
-      </x:c>
-      <x:c r="G27" s="64"/>
-      <x:c r="H27" s="64"/>
-      <x:c r="I27" s="64"/>
-      <x:c r="J27" s="65"/>
+      <x:c r="A27" s="48" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="B27" s="49"/>
+      <x:c r="C27" s="49"/>
+      <x:c r="D27" s="49"/>
+      <x:c r="E27" s="50"/>
+      <x:c r="F27" s="51" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G27" s="52"/>
+      <x:c r="H27" s="52"/>
+      <x:c r="I27" s="52"/>
+      <x:c r="J27" s="53"/>
     </x:row>
     <x:row r="28" spans="1:10">
       <x:c r="A28" s="16" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B28" s="17" t="s">
-        <x:v>41</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C28" s="17" t="s">
-        <x:v>11</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="D28" s="17" t="s">
-        <x:v>31</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E28" s="29" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="F28" s="32">
         <x:v>1</x:v>
       </x:c>
       <x:c r="G28" s="33" t="s">
-        <x:v>3</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="H28" s="33" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="I28" s="33"/>
       <x:c r="J28" s="34" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="1:10">
@@ -3033,10 +3068,10 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B29" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C29" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D29" s="10">
         <x:v>44006</x:v>
@@ -3046,16 +3081,16 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="G29" s="19" t="s">
-        <x:v>24</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="H29" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="I29" s="19" t="s">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="J29" s="24" t="s">
-        <x:v>26</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="30" spans="1:10">
@@ -3063,10 +3098,10 @@
         <x:v>2</x:v>
       </x:c>
       <x:c r="B30" s="9" t="s">
-        <x:v>10</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C30" s="9" t="s">
-        <x:v>2</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D30" s="10">
         <x:v>44006</x:v>
@@ -3085,10 +3120,10 @@
         <x:v>3</x:v>
       </x:c>
       <x:c r="B31" s="9" t="s">
-        <x:v>9</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C31" s="9" t="s">
-        <x:v>7</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D31" s="10">
         <x:v>44006</x:v>
@@ -3107,12 +3142,14 @@
         <x:v>4</x:v>
       </x:c>
       <x:c r="B32" s="9" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
       <x:c r="C32" s="9" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="D32" s="9"/>
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="D32" s="10">
+        <x:v>44009</x:v>
+      </x:c>
       <x:c r="E32" s="30"/>
       <x:c r="F32" s="18">
         <x:v>5</x:v>
@@ -3127,10 +3164,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B33" s="9" t="s">
-        <x:v>13</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="C33" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="D33" s="10">
         <x:v>44008</x:v>
@@ -3149,12 +3186,14 @@
         <x:v>6</x:v>
       </x:c>
       <x:c r="B34" s="9" t="s">
-        <x:v>64</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C34" s="9" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="D34" s="9"/>
+        <x:v>36</x:v>
+      </x:c>
+      <x:c r="D34" s="10">
+        <x:v>44009</x:v>
+      </x:c>
       <x:c r="E34" s="30"/>
       <x:c r="F34" s="18">
         <x:v>7</x:v>
@@ -3235,7 +3274,7 @@
     <x:mergeCell ref="A27:E27"/>
     <x:mergeCell ref="F27:J27"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="76" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -3257,571 +3296,571 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>38</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>66</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>0</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="19" t="s">
-        <x:v>23</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>25</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C11" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D11" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="19" t="s">
-        <x:v>1</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="C12" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D12" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="19" t="s">
-        <x:v>28</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="C13" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="19" t="s">
-        <x:v>30</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="C14" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D14" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
-        <x:v>67</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C15" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D15" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="25" t="s">
-        <x:v>69</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C16" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D16" s="19" t="s">
-        <x:v>62</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54" t="s">
+        <x:v>85</x:v>
+      </x:c>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -3841,7 +3880,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <x:drawing r:id="rId1"/>
 </x:worksheet>
@@ -3859,168 +3898,168 @@
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>46</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>47</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="19" t="s">
-        <x:v>57</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="19" t="s">
-        <x:v>45</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
@@ -4030,11 +4069,11 @@
       <x:c r="C11" s="19"/>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
@@ -4044,11 +4083,11 @@
       <x:c r="C12" s="19"/>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
@@ -4058,11 +4097,11 @@
       <x:c r="C13" s="19"/>
       <x:c r="D13" s="19"/>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
@@ -4072,11 +4111,11 @@
       <x:c r="C14" s="19"/>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
@@ -4086,11 +4125,11 @@
       <x:c r="C15" s="19"/>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
@@ -4100,290 +4139,290 @@
       <x:c r="C16" s="25"/>
       <x:c r="D16" s="25"/>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36"/>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54"/>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36"/>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -4403,7 +4442,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -4420,198 +4459,198 @@
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>9</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>55</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>58</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>39</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="19" t="s">
-        <x:v>37</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>43</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C11" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="19" t="s">
-        <x:v>22</x:v>
+        <x:v>9</x:v>
       </x:c>
       <x:c r="C12" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
@@ -4621,366 +4660,366 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="C13" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="19" t="s">
-        <x:v>63</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="19" t="s">
-        <x:v>65</x:v>
+        <x:v>77</x:v>
       </x:c>
       <x:c r="C14" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
-        <x:v>68</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C15" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="19" t="s">
-        <x:v>61</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C16" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36"/>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54"/>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36"/>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
     <x:row r="40" spans="1:5" ht="16.75">
       <x:c r="A40" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B40" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C40" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D40" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E40" s="23" t="s">
-        <x:v>12</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="41" spans="1:5">
@@ -4991,7 +5030,7 @@
         <x:v>200626</x:v>
       </x:c>
       <x:c r="C41" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D41" s="19"/>
       <x:c r="E41" s="24"/>
@@ -5095,7 +5134,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5112,126 +5151,126 @@
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.399999999999999"/>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>5</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>81</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>20</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
@@ -5241,11 +5280,11 @@
       <x:c r="C9" s="19"/>
       <x:c r="D9" s="19"/>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
@@ -5255,11 +5294,11 @@
       <x:c r="C10" s="19"/>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
@@ -5269,11 +5308,11 @@
       <x:c r="C11" s="19"/>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
@@ -5283,11 +5322,11 @@
       <x:c r="C12" s="19"/>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
@@ -5297,11 +5336,11 @@
       <x:c r="C13" s="19"/>
       <x:c r="D13" s="19"/>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
@@ -5311,11 +5350,11 @@
       <x:c r="C14" s="19"/>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
@@ -5325,11 +5364,11 @@
       <x:c r="C15" s="19"/>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
@@ -5339,292 +5378,292 @@
       <x:c r="C16" s="25"/>
       <x:c r="D16" s="25"/>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36"/>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -5644,7 +5683,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -5664,549 +5703,549 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>71</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>59</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="19" t="s">
-        <x:v>75</x:v>
+        <x:v>1</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
         <x:v>5</x:v>
       </x:c>
       <x:c r="B11" s="19" t="s">
-        <x:v>60</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C11" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
         <x:v>6</x:v>
       </x:c>
       <x:c r="B12" s="19" t="s">
-        <x:v>77</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C12" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
         <x:v>7</x:v>
       </x:c>
       <x:c r="B13" s="19" t="s">
-        <x:v>78</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="C13" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D13" s="19"/>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
         <x:v>8</x:v>
       </x:c>
       <x:c r="B14" s="19" t="s">
-        <x:v>34</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="C14" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
         <x:v>9</x:v>
       </x:c>
       <x:c r="B15" s="19" t="s">
-        <x:v>79</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C15" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B16" s="25" t="s">
-        <x:v>80</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C16" s="25" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D16" s="25"/>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36"/>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54"/>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36"/>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -6226,7 +6265,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>
@@ -6246,162 +6285,162 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:10">
-      <x:c r="A1" s="40" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="B1" s="41"/>
-      <x:c r="C1" s="41"/>
-      <x:c r="D1" s="41"/>
-      <x:c r="E1" s="41"/>
-      <x:c r="F1" s="41"/>
-      <x:c r="G1" s="41"/>
-      <x:c r="H1" s="41"/>
-      <x:c r="I1" s="41"/>
-      <x:c r="J1" s="42"/>
+      <x:c r="A1" s="36" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="B1" s="37"/>
+      <x:c r="C1" s="37"/>
+      <x:c r="D1" s="37"/>
+      <x:c r="E1" s="37"/>
+      <x:c r="F1" s="37"/>
+      <x:c r="G1" s="37"/>
+      <x:c r="H1" s="37"/>
+      <x:c r="I1" s="37"/>
+      <x:c r="J1" s="38"/>
     </x:row>
     <x:row r="2" spans="1:10">
-      <x:c r="A2" s="43"/>
-      <x:c r="B2" s="44"/>
-      <x:c r="C2" s="44"/>
-      <x:c r="D2" s="44"/>
-      <x:c r="E2" s="44"/>
-      <x:c r="F2" s="44"/>
-      <x:c r="G2" s="44"/>
-      <x:c r="H2" s="44"/>
-      <x:c r="I2" s="44"/>
-      <x:c r="J2" s="45"/>
+      <x:c r="A2" s="39"/>
+      <x:c r="B2" s="40"/>
+      <x:c r="C2" s="40"/>
+      <x:c r="D2" s="40"/>
+      <x:c r="E2" s="40"/>
+      <x:c r="F2" s="40"/>
+      <x:c r="G2" s="40"/>
+      <x:c r="H2" s="40"/>
+      <x:c r="I2" s="40"/>
+      <x:c r="J2" s="41"/>
     </x:row>
     <x:row r="3" spans="1:10">
-      <x:c r="A3" s="43"/>
-      <x:c r="B3" s="44"/>
-      <x:c r="C3" s="44"/>
-      <x:c r="D3" s="44"/>
-      <x:c r="E3" s="44"/>
-      <x:c r="F3" s="44"/>
-      <x:c r="G3" s="44"/>
-      <x:c r="H3" s="44"/>
-      <x:c r="I3" s="44"/>
-      <x:c r="J3" s="45"/>
+      <x:c r="A3" s="39"/>
+      <x:c r="B3" s="40"/>
+      <x:c r="C3" s="40"/>
+      <x:c r="D3" s="40"/>
+      <x:c r="E3" s="40"/>
+      <x:c r="F3" s="40"/>
+      <x:c r="G3" s="40"/>
+      <x:c r="H3" s="40"/>
+      <x:c r="I3" s="40"/>
+      <x:c r="J3" s="41"/>
     </x:row>
     <x:row r="4" spans="1:10">
-      <x:c r="A4" s="43"/>
-      <x:c r="B4" s="44"/>
-      <x:c r="C4" s="44"/>
-      <x:c r="D4" s="44"/>
-      <x:c r="E4" s="44"/>
-      <x:c r="F4" s="44"/>
-      <x:c r="G4" s="44"/>
-      <x:c r="H4" s="44"/>
-      <x:c r="I4" s="44"/>
-      <x:c r="J4" s="45"/>
+      <x:c r="A4" s="39"/>
+      <x:c r="B4" s="40"/>
+      <x:c r="C4" s="40"/>
+      <x:c r="D4" s="40"/>
+      <x:c r="E4" s="40"/>
+      <x:c r="F4" s="40"/>
+      <x:c r="G4" s="40"/>
+      <x:c r="H4" s="40"/>
+      <x:c r="I4" s="40"/>
+      <x:c r="J4" s="41"/>
     </x:row>
     <x:row r="5" spans="1:10">
-      <x:c r="A5" s="43"/>
-      <x:c r="B5" s="44"/>
-      <x:c r="C5" s="44"/>
-      <x:c r="D5" s="44"/>
-      <x:c r="E5" s="44"/>
-      <x:c r="F5" s="46"/>
-      <x:c r="G5" s="46"/>
-      <x:c r="H5" s="46"/>
-      <x:c r="I5" s="46"/>
-      <x:c r="J5" s="47"/>
+      <x:c r="A5" s="39"/>
+      <x:c r="B5" s="40"/>
+      <x:c r="C5" s="40"/>
+      <x:c r="D5" s="40"/>
+      <x:c r="E5" s="40"/>
+      <x:c r="F5" s="43"/>
+      <x:c r="G5" s="43"/>
+      <x:c r="H5" s="43"/>
+      <x:c r="I5" s="43"/>
+      <x:c r="J5" s="44"/>
     </x:row>
     <x:row r="6" spans="1:10" ht="16.75">
       <x:c r="A6" s="21" t="s">
-        <x:v>19</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="B6" s="22" t="s">
-        <x:v>52</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="C6" s="22" t="s">
-        <x:v>4</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D6" s="22" t="s">
-        <x:v>14</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="E6" s="23" t="s">
-        <x:v>12</x:v>
-      </x:c>
-      <x:c r="F6" s="48" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="G6" s="48"/>
-      <x:c r="H6" s="48"/>
-      <x:c r="I6" s="48"/>
-      <x:c r="J6" s="48"/>
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F6" s="58" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="G6" s="58"/>
+      <x:c r="H6" s="58"/>
+      <x:c r="I6" s="58"/>
+      <x:c r="J6" s="58"/>
     </x:row>
     <x:row r="7" spans="1:10">
       <x:c r="A7" s="18">
         <x:v>1</x:v>
       </x:c>
       <x:c r="B7" s="19" t="s">
-        <x:v>21</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="C7" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D7" s="19"/>
       <x:c r="E7" s="24"/>
-      <x:c r="F7" s="50"/>
-      <x:c r="G7" s="50"/>
-      <x:c r="H7" s="50"/>
-      <x:c r="I7" s="50"/>
-      <x:c r="J7" s="50"/>
+      <x:c r="F7" s="60"/>
+      <x:c r="G7" s="60"/>
+      <x:c r="H7" s="60"/>
+      <x:c r="I7" s="60"/>
+      <x:c r="J7" s="60"/>
     </x:row>
     <x:row r="8" spans="1:10">
       <x:c r="A8" s="18">
         <x:v>2</x:v>
       </x:c>
       <x:c r="B8" s="19" t="s">
-        <x:v>74</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C8" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D8" s="19"/>
       <x:c r="E8" s="24"/>
-      <x:c r="F8" s="50"/>
-      <x:c r="G8" s="50"/>
-      <x:c r="H8" s="50"/>
-      <x:c r="I8" s="50"/>
-      <x:c r="J8" s="50"/>
+      <x:c r="F8" s="60"/>
+      <x:c r="G8" s="60"/>
+      <x:c r="H8" s="60"/>
+      <x:c r="I8" s="60"/>
+      <x:c r="J8" s="60"/>
     </x:row>
     <x:row r="9" spans="1:10">
       <x:c r="A9" s="18">
         <x:v>3</x:v>
       </x:c>
       <x:c r="B9" s="19" t="s">
-        <x:v>76</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="C9" s="19" t="s">
-        <x:v>42</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="19"/>
       <x:c r="E9" s="24"/>
-      <x:c r="F9" s="50"/>
-      <x:c r="G9" s="50"/>
-      <x:c r="H9" s="50"/>
-      <x:c r="I9" s="50"/>
-      <x:c r="J9" s="50"/>
+      <x:c r="F9" s="60"/>
+      <x:c r="G9" s="60"/>
+      <x:c r="H9" s="60"/>
+      <x:c r="I9" s="60"/>
+      <x:c r="J9" s="60"/>
     </x:row>
     <x:row r="10" spans="1:10">
       <x:c r="A10" s="18">
         <x:v>4</x:v>
       </x:c>
       <x:c r="B10" s="19" t="s">
-        <x:v>73</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C10" s="19" t="s">
-        <x:v>48</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="D10" s="19"/>
       <x:c r="E10" s="24"/>
-      <x:c r="F10" s="50"/>
-      <x:c r="G10" s="50"/>
-      <x:c r="H10" s="50"/>
-      <x:c r="I10" s="50"/>
-      <x:c r="J10" s="50"/>
+      <x:c r="F10" s="60"/>
+      <x:c r="G10" s="60"/>
+      <x:c r="H10" s="60"/>
+      <x:c r="I10" s="60"/>
+      <x:c r="J10" s="60"/>
     </x:row>
     <x:row r="11" spans="1:10">
       <x:c r="A11" s="18">
@@ -6411,11 +6450,11 @@
       <x:c r="C11" s="19"/>
       <x:c r="D11" s="19"/>
       <x:c r="E11" s="24"/>
-      <x:c r="F11" s="50"/>
-      <x:c r="G11" s="50"/>
-      <x:c r="H11" s="50"/>
-      <x:c r="I11" s="50"/>
-      <x:c r="J11" s="50"/>
+      <x:c r="F11" s="60"/>
+      <x:c r="G11" s="60"/>
+      <x:c r="H11" s="60"/>
+      <x:c r="I11" s="60"/>
+      <x:c r="J11" s="60"/>
     </x:row>
     <x:row r="12" spans="1:10">
       <x:c r="A12" s="18">
@@ -6425,11 +6464,11 @@
       <x:c r="C12" s="19"/>
       <x:c r="D12" s="19"/>
       <x:c r="E12" s="24"/>
-      <x:c r="F12" s="50"/>
-      <x:c r="G12" s="50"/>
-      <x:c r="H12" s="50"/>
-      <x:c r="I12" s="50"/>
-      <x:c r="J12" s="50"/>
+      <x:c r="F12" s="60"/>
+      <x:c r="G12" s="60"/>
+      <x:c r="H12" s="60"/>
+      <x:c r="I12" s="60"/>
+      <x:c r="J12" s="60"/>
     </x:row>
     <x:row r="13" spans="1:10">
       <x:c r="A13" s="18">
@@ -6439,11 +6478,11 @@
       <x:c r="C13" s="19"/>
       <x:c r="D13" s="19"/>
       <x:c r="E13" s="24"/>
-      <x:c r="F13" s="50"/>
-      <x:c r="G13" s="50"/>
-      <x:c r="H13" s="50"/>
-      <x:c r="I13" s="50"/>
-      <x:c r="J13" s="50"/>
+      <x:c r="F13" s="60"/>
+      <x:c r="G13" s="60"/>
+      <x:c r="H13" s="60"/>
+      <x:c r="I13" s="60"/>
+      <x:c r="J13" s="60"/>
     </x:row>
     <x:row r="14" spans="1:10">
       <x:c r="A14" s="18">
@@ -6453,11 +6492,11 @@
       <x:c r="C14" s="19"/>
       <x:c r="D14" s="19"/>
       <x:c r="E14" s="24"/>
-      <x:c r="F14" s="50"/>
-      <x:c r="G14" s="50"/>
-      <x:c r="H14" s="50"/>
-      <x:c r="I14" s="50"/>
-      <x:c r="J14" s="50"/>
+      <x:c r="F14" s="60"/>
+      <x:c r="G14" s="60"/>
+      <x:c r="H14" s="60"/>
+      <x:c r="I14" s="60"/>
+      <x:c r="J14" s="60"/>
     </x:row>
     <x:row r="15" spans="1:10">
       <x:c r="A15" s="18">
@@ -6467,11 +6506,11 @@
       <x:c r="C15" s="19"/>
       <x:c r="D15" s="19"/>
       <x:c r="E15" s="24"/>
-      <x:c r="F15" s="50"/>
-      <x:c r="G15" s="50"/>
-      <x:c r="H15" s="50"/>
-      <x:c r="I15" s="50"/>
-      <x:c r="J15" s="50"/>
+      <x:c r="F15" s="60"/>
+      <x:c r="G15" s="60"/>
+      <x:c r="H15" s="60"/>
+      <x:c r="I15" s="60"/>
+      <x:c r="J15" s="60"/>
     </x:row>
     <x:row r="16" spans="1:10" ht="16.75">
       <x:c r="A16" s="20">
@@ -6481,290 +6520,290 @@
       <x:c r="C16" s="25"/>
       <x:c r="D16" s="25"/>
       <x:c r="E16" s="26"/>
-      <x:c r="F16" s="50"/>
-      <x:c r="G16" s="50"/>
-      <x:c r="H16" s="50"/>
-      <x:c r="I16" s="50"/>
-      <x:c r="J16" s="50"/>
+      <x:c r="F16" s="60"/>
+      <x:c r="G16" s="60"/>
+      <x:c r="H16" s="60"/>
+      <x:c r="I16" s="60"/>
+      <x:c r="J16" s="60"/>
     </x:row>
     <x:row r="17" spans="1:10">
-      <x:c r="A17" s="48" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="B17" s="48"/>
-      <x:c r="C17" s="48"/>
-      <x:c r="D17" s="48"/>
-      <x:c r="E17" s="48"/>
-      <x:c r="F17" s="50"/>
-      <x:c r="G17" s="50"/>
-      <x:c r="H17" s="50"/>
-      <x:c r="I17" s="50"/>
-      <x:c r="J17" s="50"/>
+      <x:c r="A17" s="58" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B17" s="58"/>
+      <x:c r="C17" s="58"/>
+      <x:c r="D17" s="58"/>
+      <x:c r="E17" s="58"/>
+      <x:c r="F17" s="60"/>
+      <x:c r="G17" s="60"/>
+      <x:c r="H17" s="60"/>
+      <x:c r="I17" s="60"/>
+      <x:c r="J17" s="60"/>
     </x:row>
     <x:row r="18" spans="1:10">
-      <x:c r="A18" s="49"/>
-      <x:c r="B18" s="49"/>
-      <x:c r="C18" s="49"/>
-      <x:c r="D18" s="49"/>
-      <x:c r="E18" s="49"/>
-      <x:c r="F18" s="50"/>
-      <x:c r="G18" s="50"/>
-      <x:c r="H18" s="50"/>
-      <x:c r="I18" s="50"/>
-      <x:c r="J18" s="50"/>
+      <x:c r="A18" s="59"/>
+      <x:c r="B18" s="59"/>
+      <x:c r="C18" s="59"/>
+      <x:c r="D18" s="59"/>
+      <x:c r="E18" s="59"/>
+      <x:c r="F18" s="60"/>
+      <x:c r="G18" s="60"/>
+      <x:c r="H18" s="60"/>
+      <x:c r="I18" s="60"/>
+      <x:c r="J18" s="60"/>
     </x:row>
     <x:row r="19" spans="1:10">
-      <x:c r="A19" s="49"/>
-      <x:c r="B19" s="49"/>
-      <x:c r="C19" s="49"/>
-      <x:c r="D19" s="49"/>
-      <x:c r="E19" s="49"/>
-      <x:c r="F19" s="50"/>
-      <x:c r="G19" s="50"/>
-      <x:c r="H19" s="50"/>
-      <x:c r="I19" s="50"/>
-      <x:c r="J19" s="50"/>
+      <x:c r="A19" s="59"/>
+      <x:c r="B19" s="59"/>
+      <x:c r="C19" s="59"/>
+      <x:c r="D19" s="59"/>
+      <x:c r="E19" s="59"/>
+      <x:c r="F19" s="60"/>
+      <x:c r="G19" s="60"/>
+      <x:c r="H19" s="60"/>
+      <x:c r="I19" s="60"/>
+      <x:c r="J19" s="60"/>
     </x:row>
     <x:row r="20" spans="1:10">
-      <x:c r="A20" s="49"/>
-      <x:c r="B20" s="49"/>
-      <x:c r="C20" s="49"/>
-      <x:c r="D20" s="49"/>
-      <x:c r="E20" s="49"/>
-      <x:c r="F20" s="50"/>
-      <x:c r="G20" s="50"/>
-      <x:c r="H20" s="50"/>
-      <x:c r="I20" s="50"/>
-      <x:c r="J20" s="50"/>
+      <x:c r="A20" s="59"/>
+      <x:c r="B20" s="59"/>
+      <x:c r="C20" s="59"/>
+      <x:c r="D20" s="59"/>
+      <x:c r="E20" s="59"/>
+      <x:c r="F20" s="60"/>
+      <x:c r="G20" s="60"/>
+      <x:c r="H20" s="60"/>
+      <x:c r="I20" s="60"/>
+      <x:c r="J20" s="60"/>
     </x:row>
     <x:row r="21" spans="1:10">
-      <x:c r="A21" s="49"/>
-      <x:c r="B21" s="49"/>
-      <x:c r="C21" s="49"/>
-      <x:c r="D21" s="49"/>
-      <x:c r="E21" s="49"/>
-      <x:c r="F21" s="50"/>
-      <x:c r="G21" s="50"/>
-      <x:c r="H21" s="50"/>
-      <x:c r="I21" s="50"/>
-      <x:c r="J21" s="50"/>
+      <x:c r="A21" s="59"/>
+      <x:c r="B21" s="59"/>
+      <x:c r="C21" s="59"/>
+      <x:c r="D21" s="59"/>
+      <x:c r="E21" s="59"/>
+      <x:c r="F21" s="60"/>
+      <x:c r="G21" s="60"/>
+      <x:c r="H21" s="60"/>
+      <x:c r="I21" s="60"/>
+      <x:c r="J21" s="60"/>
     </x:row>
     <x:row r="22" spans="1:10">
-      <x:c r="A22" s="49"/>
-      <x:c r="B22" s="49"/>
-      <x:c r="C22" s="49"/>
-      <x:c r="D22" s="49"/>
-      <x:c r="E22" s="49"/>
-      <x:c r="F22" s="50"/>
-      <x:c r="G22" s="50"/>
-      <x:c r="H22" s="50"/>
-      <x:c r="I22" s="50"/>
-      <x:c r="J22" s="50"/>
+      <x:c r="A22" s="59"/>
+      <x:c r="B22" s="59"/>
+      <x:c r="C22" s="59"/>
+      <x:c r="D22" s="59"/>
+      <x:c r="E22" s="59"/>
+      <x:c r="F22" s="60"/>
+      <x:c r="G22" s="60"/>
+      <x:c r="H22" s="60"/>
+      <x:c r="I22" s="60"/>
+      <x:c r="J22" s="60"/>
     </x:row>
     <x:row r="23" spans="1:10">
-      <x:c r="A23" s="49"/>
-      <x:c r="B23" s="49"/>
-      <x:c r="C23" s="49"/>
-      <x:c r="D23" s="49"/>
-      <x:c r="E23" s="49"/>
-      <x:c r="F23" s="50"/>
-      <x:c r="G23" s="50"/>
-      <x:c r="H23" s="50"/>
-      <x:c r="I23" s="50"/>
-      <x:c r="J23" s="50"/>
+      <x:c r="A23" s="59"/>
+      <x:c r="B23" s="59"/>
+      <x:c r="C23" s="59"/>
+      <x:c r="D23" s="59"/>
+      <x:c r="E23" s="59"/>
+      <x:c r="F23" s="60"/>
+      <x:c r="G23" s="60"/>
+      <x:c r="H23" s="60"/>
+      <x:c r="I23" s="60"/>
+      <x:c r="J23" s="60"/>
     </x:row>
     <x:row r="24" spans="1:10">
-      <x:c r="A24" s="49"/>
-      <x:c r="B24" s="49"/>
-      <x:c r="C24" s="49"/>
-      <x:c r="D24" s="49"/>
-      <x:c r="E24" s="49"/>
-      <x:c r="F24" s="50"/>
-      <x:c r="G24" s="50"/>
-      <x:c r="H24" s="50"/>
-      <x:c r="I24" s="50"/>
-      <x:c r="J24" s="50"/>
+      <x:c r="A24" s="59"/>
+      <x:c r="B24" s="59"/>
+      <x:c r="C24" s="59"/>
+      <x:c r="D24" s="59"/>
+      <x:c r="E24" s="59"/>
+      <x:c r="F24" s="60"/>
+      <x:c r="G24" s="60"/>
+      <x:c r="H24" s="60"/>
+      <x:c r="I24" s="60"/>
+      <x:c r="J24" s="60"/>
     </x:row>
     <x:row r="25" spans="1:10">
-      <x:c r="A25" s="49"/>
-      <x:c r="B25" s="49"/>
-      <x:c r="C25" s="49"/>
-      <x:c r="D25" s="49"/>
-      <x:c r="E25" s="49"/>
-      <x:c r="F25" s="50"/>
-      <x:c r="G25" s="50"/>
-      <x:c r="H25" s="50"/>
-      <x:c r="I25" s="50"/>
-      <x:c r="J25" s="50"/>
+      <x:c r="A25" s="59"/>
+      <x:c r="B25" s="59"/>
+      <x:c r="C25" s="59"/>
+      <x:c r="D25" s="59"/>
+      <x:c r="E25" s="59"/>
+      <x:c r="F25" s="60"/>
+      <x:c r="G25" s="60"/>
+      <x:c r="H25" s="60"/>
+      <x:c r="I25" s="60"/>
+      <x:c r="J25" s="60"/>
     </x:row>
     <x:row r="26" spans="1:10">
-      <x:c r="A26" s="49"/>
-      <x:c r="B26" s="49"/>
-      <x:c r="C26" s="49"/>
-      <x:c r="D26" s="49"/>
-      <x:c r="E26" s="49"/>
-      <x:c r="F26" s="50"/>
-      <x:c r="G26" s="50"/>
-      <x:c r="H26" s="50"/>
-      <x:c r="I26" s="50"/>
-      <x:c r="J26" s="50"/>
+      <x:c r="A26" s="59"/>
+      <x:c r="B26" s="59"/>
+      <x:c r="C26" s="59"/>
+      <x:c r="D26" s="59"/>
+      <x:c r="E26" s="59"/>
+      <x:c r="F26" s="60"/>
+      <x:c r="G26" s="60"/>
+      <x:c r="H26" s="60"/>
+      <x:c r="I26" s="60"/>
+      <x:c r="J26" s="60"/>
     </x:row>
     <x:row r="27" spans="1:10">
-      <x:c r="A27" s="49"/>
-      <x:c r="B27" s="49"/>
-      <x:c r="C27" s="49"/>
-      <x:c r="D27" s="49"/>
-      <x:c r="E27" s="49"/>
-      <x:c r="F27" s="50"/>
-      <x:c r="G27" s="50"/>
-      <x:c r="H27" s="50"/>
-      <x:c r="I27" s="50"/>
-      <x:c r="J27" s="50"/>
+      <x:c r="A27" s="59"/>
+      <x:c r="B27" s="59"/>
+      <x:c r="C27" s="59"/>
+      <x:c r="D27" s="59"/>
+      <x:c r="E27" s="59"/>
+      <x:c r="F27" s="60"/>
+      <x:c r="G27" s="60"/>
+      <x:c r="H27" s="60"/>
+      <x:c r="I27" s="60"/>
+      <x:c r="J27" s="60"/>
     </x:row>
     <x:row r="28" spans="1:10" ht="16.75">
-      <x:c r="A28" s="51" t="s">
-        <x:v>51</x:v>
-      </x:c>
-      <x:c r="B28" s="52"/>
-      <x:c r="C28" s="52"/>
-      <x:c r="D28" s="52"/>
-      <x:c r="E28" s="53"/>
-      <x:c r="F28" s="50"/>
-      <x:c r="G28" s="50"/>
-      <x:c r="H28" s="50"/>
-      <x:c r="I28" s="50"/>
-      <x:c r="J28" s="50"/>
+      <x:c r="A28" s="61" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="B28" s="62"/>
+      <x:c r="C28" s="62"/>
+      <x:c r="D28" s="62"/>
+      <x:c r="E28" s="63"/>
+      <x:c r="F28" s="60"/>
+      <x:c r="G28" s="60"/>
+      <x:c r="H28" s="60"/>
+      <x:c r="I28" s="60"/>
+      <x:c r="J28" s="60"/>
     </x:row>
     <x:row r="29" spans="1:10">
       <x:c r="A29" s="28" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="B29" s="54" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C29" s="54"/>
-      <x:c r="D29" s="54"/>
-      <x:c r="E29" s="55"/>
-      <x:c r="F29" s="50"/>
-      <x:c r="G29" s="50"/>
-      <x:c r="H29" s="50"/>
-      <x:c r="I29" s="50"/>
-      <x:c r="J29" s="50"/>
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="B29" s="64" t="s">
+        <x:v>32</x:v>
+      </x:c>
+      <x:c r="C29" s="64"/>
+      <x:c r="D29" s="64"/>
+      <x:c r="E29" s="65"/>
+      <x:c r="F29" s="60"/>
+      <x:c r="G29" s="60"/>
+      <x:c r="H29" s="60"/>
+      <x:c r="I29" s="60"/>
+      <x:c r="J29" s="60"/>
     </x:row>
     <x:row r="30" spans="1:10">
       <x:c r="A30" s="1">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="B30" s="36"/>
-      <x:c r="C30" s="36"/>
-      <x:c r="D30" s="36"/>
-      <x:c r="E30" s="37"/>
-      <x:c r="F30" s="50"/>
-      <x:c r="G30" s="50"/>
-      <x:c r="H30" s="50"/>
-      <x:c r="I30" s="50"/>
-      <x:c r="J30" s="50"/>
+      <x:c r="B30" s="54"/>
+      <x:c r="C30" s="54"/>
+      <x:c r="D30" s="54"/>
+      <x:c r="E30" s="55"/>
+      <x:c r="F30" s="60"/>
+      <x:c r="G30" s="60"/>
+      <x:c r="H30" s="60"/>
+      <x:c r="I30" s="60"/>
+      <x:c r="J30" s="60"/>
     </x:row>
     <x:row r="31" spans="1:10">
       <x:c r="A31" s="1">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="B31" s="36"/>
-      <x:c r="C31" s="36"/>
-      <x:c r="D31" s="36"/>
-      <x:c r="E31" s="37"/>
-      <x:c r="F31" s="50"/>
-      <x:c r="G31" s="50"/>
-      <x:c r="H31" s="50"/>
-      <x:c r="I31" s="50"/>
-      <x:c r="J31" s="50"/>
+      <x:c r="B31" s="54"/>
+      <x:c r="C31" s="54"/>
+      <x:c r="D31" s="54"/>
+      <x:c r="E31" s="55"/>
+      <x:c r="F31" s="60"/>
+      <x:c r="G31" s="60"/>
+      <x:c r="H31" s="60"/>
+      <x:c r="I31" s="60"/>
+      <x:c r="J31" s="60"/>
     </x:row>
     <x:row r="32" spans="1:10">
       <x:c r="A32" s="1">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="B32" s="36"/>
-      <x:c r="C32" s="36"/>
-      <x:c r="D32" s="36"/>
-      <x:c r="E32" s="37"/>
-      <x:c r="F32" s="50"/>
-      <x:c r="G32" s="50"/>
-      <x:c r="H32" s="50"/>
-      <x:c r="I32" s="50"/>
-      <x:c r="J32" s="50"/>
+      <x:c r="B32" s="54"/>
+      <x:c r="C32" s="54"/>
+      <x:c r="D32" s="54"/>
+      <x:c r="E32" s="55"/>
+      <x:c r="F32" s="60"/>
+      <x:c r="G32" s="60"/>
+      <x:c r="H32" s="60"/>
+      <x:c r="I32" s="60"/>
+      <x:c r="J32" s="60"/>
     </x:row>
     <x:row r="33" spans="1:10">
       <x:c r="A33" s="1">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B33" s="36"/>
-      <x:c r="C33" s="36"/>
-      <x:c r="D33" s="36"/>
-      <x:c r="E33" s="37"/>
-      <x:c r="F33" s="50"/>
-      <x:c r="G33" s="50"/>
-      <x:c r="H33" s="50"/>
-      <x:c r="I33" s="50"/>
-      <x:c r="J33" s="50"/>
+      <x:c r="B33" s="54"/>
+      <x:c r="C33" s="54"/>
+      <x:c r="D33" s="54"/>
+      <x:c r="E33" s="55"/>
+      <x:c r="F33" s="60"/>
+      <x:c r="G33" s="60"/>
+      <x:c r="H33" s="60"/>
+      <x:c r="I33" s="60"/>
+      <x:c r="J33" s="60"/>
     </x:row>
     <x:row r="34" spans="1:10">
       <x:c r="A34" s="1">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="B34" s="36"/>
-      <x:c r="C34" s="36"/>
-      <x:c r="D34" s="36"/>
-      <x:c r="E34" s="37"/>
-      <x:c r="F34" s="50"/>
-      <x:c r="G34" s="50"/>
-      <x:c r="H34" s="50"/>
-      <x:c r="I34" s="50"/>
-      <x:c r="J34" s="50"/>
+      <x:c r="B34" s="54"/>
+      <x:c r="C34" s="54"/>
+      <x:c r="D34" s="54"/>
+      <x:c r="E34" s="55"/>
+      <x:c r="F34" s="60"/>
+      <x:c r="G34" s="60"/>
+      <x:c r="H34" s="60"/>
+      <x:c r="I34" s="60"/>
+      <x:c r="J34" s="60"/>
     </x:row>
     <x:row r="35" spans="1:5">
       <x:c r="A35" s="1">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="B35" s="36"/>
-      <x:c r="C35" s="36"/>
-      <x:c r="D35" s="36"/>
-      <x:c r="E35" s="37"/>
+      <x:c r="B35" s="54"/>
+      <x:c r="C35" s="54"/>
+      <x:c r="D35" s="54"/>
+      <x:c r="E35" s="55"/>
     </x:row>
     <x:row r="36" spans="1:5">
       <x:c r="A36" s="1">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="B36" s="36"/>
-      <x:c r="C36" s="36"/>
-      <x:c r="D36" s="36"/>
-      <x:c r="E36" s="37"/>
+      <x:c r="B36" s="54"/>
+      <x:c r="C36" s="54"/>
+      <x:c r="D36" s="54"/>
+      <x:c r="E36" s="55"/>
     </x:row>
     <x:row r="37" spans="1:5">
       <x:c r="A37" s="1">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="B37" s="36"/>
-      <x:c r="C37" s="36"/>
-      <x:c r="D37" s="36"/>
-      <x:c r="E37" s="37"/>
+      <x:c r="B37" s="54"/>
+      <x:c r="C37" s="54"/>
+      <x:c r="D37" s="54"/>
+      <x:c r="E37" s="55"/>
     </x:row>
     <x:row r="38" spans="1:5">
       <x:c r="A38" s="1">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="B38" s="36"/>
-      <x:c r="C38" s="36"/>
-      <x:c r="D38" s="36"/>
-      <x:c r="E38" s="37"/>
+      <x:c r="B38" s="54"/>
+      <x:c r="C38" s="54"/>
+      <x:c r="D38" s="54"/>
+      <x:c r="E38" s="55"/>
     </x:row>
     <x:row r="39" spans="1:5" ht="16.75">
       <x:c r="A39" s="27">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="B39" s="38"/>
-      <x:c r="C39" s="38"/>
-      <x:c r="D39" s="38"/>
-      <x:c r="E39" s="39"/>
+      <x:c r="B39" s="56"/>
+      <x:c r="C39" s="56"/>
+      <x:c r="D39" s="56"/>
+      <x:c r="E39" s="57"/>
     </x:row>
   </x:sheetData>
   <x:mergeCells count="15">
@@ -6784,7 +6823,7 @@
     <x:mergeCell ref="B33:E33"/>
     <x:mergeCell ref="B34:E34"/>
   </x:mergeCells>
-  <x:pageMargins left="0.69999998807907104" right="0.69999998807907104" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
+  <x:pageMargins left="0.69986110925674438" right="0.69986110925674438" top="0.75" bottom="0.75" header="0.30000001192092896" footer="0.30000001192092896"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
 </x:worksheet>
 </file>